--- a/Documention/Personal Dev_Team.xlsx
+++ b/Documention/Personal Dev_Team.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1899F2-CC9F-49C5-B2C7-4936A029788B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFE3E15-9B39-477C-8ACD-1C6F7FEBD61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
   <si>
     <t>Notes</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>http://localhost:80/Client/</t>
+  </si>
+  <si>
+    <t>https://github.com/triquang15/E-MultiVendor.git</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1728,9 +1731,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1797,12 +1797,87 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1812,64 +1887,28 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,45 +1916,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2345,18 +2345,18 @@
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="75" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2368,14 +2368,14 @@
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:16" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
@@ -2415,7 +2415,7 @@
       <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="74" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10"/>
@@ -2424,10 +2424,10 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="79">
         <v>1</v>
       </c>
       <c r="D7" s="35"/>
@@ -2436,10 +2436,10 @@
       <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="79">
         <v>1</v>
       </c>
       <c r="D8" s="35"/>
@@ -2448,10 +2448,10 @@
       <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="79">
         <v>1</v>
       </c>
       <c r="D9" s="35"/>
@@ -2460,7 +2460,7 @@
       <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="74" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="15"/>
@@ -2470,10 +2470,10 @@
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="79">
         <v>1</v>
       </c>
       <c r="D11" s="35"/>
@@ -2482,10 +2482,10 @@
       <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="79">
         <v>1</v>
       </c>
       <c r="D12" s="35"/>
@@ -2494,10 +2494,10 @@
       <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="79">
         <v>1</v>
       </c>
       <c r="D13" s="35"/>
@@ -2512,20 +2512,20 @@
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="80">
+      <c r="F14" s="79">
         <v>1</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="39" t="s">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="35"/>
-      <c r="E16" s="80">
+      <c r="E16" s="79">
         <v>1</v>
       </c>
       <c r="F16" s="37"/>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="35"/>
-      <c r="E17" s="80">
+      <c r="E17" s="79">
         <v>1</v>
       </c>
       <c r="F17" s="37"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="80">
+      <c r="E18" s="79">
         <v>1</v>
       </c>
       <c r="F18" s="18"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="80">
+      <c r="E19" s="79">
         <v>1</v>
       </c>
       <c r="F19" s="37"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="80">
+      <c r="E20" s="79">
         <v>1</v>
       </c>
       <c r="F20" s="37"/>
@@ -2593,14 +2593,14 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="80">
+      <c r="E21" s="79">
         <v>1</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="38"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="86" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="15"/>
@@ -2614,7 +2614,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="80">
+      <c r="D23" s="79">
         <v>1</v>
       </c>
       <c r="E23" s="36"/>
@@ -2626,7 +2626,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="80">
+      <c r="D24" s="79">
         <v>1</v>
       </c>
       <c r="E24" s="36"/>
@@ -2638,7 +2638,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="80">
+      <c r="D25" s="79">
         <v>1</v>
       </c>
       <c r="E25" s="36"/>
@@ -2646,7 +2646,7 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="86" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="15"/>
@@ -2659,7 +2659,7 @@
       <c r="B27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="80">
+      <c r="C27" s="79">
         <v>1</v>
       </c>
       <c r="D27" s="35"/>
@@ -2671,7 +2671,7 @@
       <c r="B28" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="79">
         <v>1</v>
       </c>
       <c r="D28" s="35"/>
@@ -2683,7 +2683,7 @@
       <c r="B29" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="80">
+      <c r="C29" s="79">
         <v>1</v>
       </c>
       <c r="D29" s="35"/>
@@ -2695,7 +2695,7 @@
       <c r="B30" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="79">
         <v>1</v>
       </c>
       <c r="D30" s="35"/>
@@ -2707,7 +2707,7 @@
       <c r="B31" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="80">
+      <c r="C31" s="79">
         <v>1</v>
       </c>
       <c r="D31" s="35"/>
@@ -2719,7 +2719,7 @@
       <c r="B32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="79">
         <v>1</v>
       </c>
       <c r="D32" s="35"/>
@@ -2731,7 +2731,7 @@
       <c r="B33" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="79">
         <v>1</v>
       </c>
       <c r="D33" s="35"/>
@@ -2740,7 +2740,7 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="86" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="15"/>
@@ -2757,7 +2757,7 @@
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="80">
+      <c r="G35" s="79">
         <v>1</v>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="80">
+      <c r="G36" s="79">
         <v>1</v>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="37"/>
-      <c r="G37" s="80">
+      <c r="G37" s="79">
         <v>1</v>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="37"/>
-      <c r="G38" s="80">
+      <c r="G38" s="79">
         <v>1</v>
       </c>
     </row>
@@ -2805,12 +2805,12 @@
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="80">
+      <c r="G39" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="15"/>
@@ -2826,7 +2826,7 @@
       <c r="C41" s="14"/>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
-      <c r="F41" s="80">
+      <c r="F41" s="79">
         <v>1</v>
       </c>
       <c r="G41" s="38"/>
@@ -2838,13 +2838,13 @@
       <c r="C42" s="14"/>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
-      <c r="F42" s="80">
+      <c r="F42" s="79">
         <v>1</v>
       </c>
       <c r="G42" s="38"/>
     </row>
     <row r="43" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="86" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="14"/>
@@ -2860,7 +2860,7 @@
       <c r="C44" s="14"/>
       <c r="D44" s="35"/>
       <c r="E44" s="36"/>
-      <c r="F44" s="80">
+      <c r="F44" s="79">
         <v>1</v>
       </c>
       <c r="G44" s="38"/>
@@ -2872,13 +2872,13 @@
       <c r="C45" s="14"/>
       <c r="D45" s="35"/>
       <c r="E45" s="36"/>
-      <c r="F45" s="80">
+      <c r="F45" s="79">
         <v>1</v>
       </c>
       <c r="G45" s="38"/>
     </row>
     <row r="46" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="86" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="15"/>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="35"/>
-      <c r="E47" s="80">
+      <c r="E47" s="79">
         <v>1</v>
       </c>
       <c r="F47" s="36"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="35"/>
-      <c r="E48" s="80">
+      <c r="E48" s="79">
         <v>1</v>
       </c>
       <c r="F48" s="36"/>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="80">
+      <c r="E49" s="79">
         <v>1</v>
       </c>
       <c r="F49" s="36"/>
@@ -2929,14 +2929,14 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="35"/>
-      <c r="E50" s="80">
+      <c r="E50" s="79">
         <v>1</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="38"/>
     </row>
     <row r="51" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="86" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="15"/>
@@ -2953,7 +2953,7 @@
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="80">
+      <c r="G52" s="79">
         <v>1</v>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
       <c r="F53" s="36"/>
-      <c r="G53" s="80">
+      <c r="G53" s="79">
         <v>1</v>
       </c>
     </row>
@@ -2977,12 +2977,12 @@
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="36"/>
-      <c r="G54" s="80">
+      <c r="G54" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="86" t="s">
         <v>66</v>
       </c>
       <c r="C55" s="15"/>
@@ -2996,7 +2996,7 @@
         <v>67</v>
       </c>
       <c r="C56" s="14"/>
-      <c r="D56" s="80">
+      <c r="D56" s="79">
         <v>1</v>
       </c>
       <c r="E56" s="35"/>
@@ -3004,7 +3004,7 @@
       <c r="G56" s="38"/>
     </row>
     <row r="57" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="87" t="s">
+      <c r="B57" s="86" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="15"/>
@@ -3018,7 +3018,7 @@
         <v>69</v>
       </c>
       <c r="C58" s="14"/>
-      <c r="D58" s="80">
+      <c r="D58" s="79">
         <v>1</v>
       </c>
       <c r="E58" s="35"/>
@@ -3030,7 +3030,7 @@
         <v>70</v>
       </c>
       <c r="C59" s="14"/>
-      <c r="D59" s="80">
+      <c r="D59" s="79">
         <v>1</v>
       </c>
       <c r="E59" s="35"/>
@@ -3042,7 +3042,7 @@
         <v>65</v>
       </c>
       <c r="C60" s="14"/>
-      <c r="D60" s="80">
+      <c r="D60" s="79">
         <v>1</v>
       </c>
       <c r="E60" s="35"/>
@@ -3050,7 +3050,7 @@
       <c r="G60" s="38"/>
     </row>
     <row r="61" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="87" t="s">
+      <c r="B61" s="86" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="15"/>
@@ -3067,7 +3067,7 @@
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="80">
+      <c r="G62" s="79">
         <v>1</v>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
       <c r="F63" s="36"/>
-      <c r="G63" s="80">
+      <c r="G63" s="79">
         <v>1</v>
       </c>
     </row>
@@ -3091,12 +3091,12 @@
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="80">
+      <c r="G64" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="86" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="15"/>
@@ -3106,24 +3106,24 @@
       <c r="G65" s="19"/>
     </row>
     <row r="66" spans="2:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="87" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="35"/>
-      <c r="E66" s="80">
+      <c r="E66" s="79">
         <v>1</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="38"/>
     </row>
     <row r="67" spans="2:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="88" t="s">
         <v>77</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="35"/>
-      <c r="E67" s="80">
+      <c r="E67" s="79">
         <v>1</v>
       </c>
       <c r="F67" s="36"/>
@@ -3135,14 +3135,14 @@
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="35"/>
-      <c r="E68" s="80">
+      <c r="E68" s="79">
         <v>1</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="38"/>
     </row>
     <row r="69" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="87" t="s">
+      <c r="B69" s="86" t="s">
         <v>79</v>
       </c>
       <c r="C69" s="15"/>
@@ -3155,7 +3155,7 @@
       <c r="B70" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="80">
+      <c r="C70" s="79">
         <v>1</v>
       </c>
       <c r="D70" s="35"/>
@@ -3167,7 +3167,7 @@
       <c r="B71" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="80">
+      <c r="C71" s="79">
         <v>1</v>
       </c>
       <c r="D71" s="35"/>
@@ -3179,7 +3179,7 @@
       <c r="B72" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="80">
+      <c r="C72" s="79">
         <v>1</v>
       </c>
       <c r="D72" s="35"/>
@@ -3191,7 +3191,7 @@
       <c r="B73" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="80">
+      <c r="C73" s="79">
         <v>1</v>
       </c>
       <c r="D73" s="35"/>
@@ -3203,7 +3203,7 @@
       <c r="B74" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="80">
+      <c r="C74" s="79">
         <v>1</v>
       </c>
       <c r="D74" s="35"/>
@@ -3215,7 +3215,7 @@
       <c r="B75" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="80">
+      <c r="C75" s="79">
         <v>1</v>
       </c>
       <c r="D75" s="35"/>
@@ -3227,7 +3227,7 @@
       <c r="B76" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="80">
+      <c r="C76" s="79">
         <v>1</v>
       </c>
       <c r="D76" s="35"/>
@@ -3239,7 +3239,7 @@
       <c r="B77" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="80">
+      <c r="C77" s="79">
         <v>1</v>
       </c>
       <c r="D77" s="35"/>
@@ -3248,7 +3248,7 @@
       <c r="G77" s="38"/>
     </row>
     <row r="78" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="87" t="s">
+      <c r="B78" s="86" t="s">
         <v>88</v>
       </c>
       <c r="C78" s="15"/>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="35"/>
-      <c r="E79" s="80">
+      <c r="E79" s="79">
         <v>1</v>
       </c>
       <c r="F79" s="36"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="35"/>
-      <c r="E80" s="80">
+      <c r="E80" s="79">
         <v>1</v>
       </c>
       <c r="F80" s="36"/>
@@ -3287,14 +3287,14 @@
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="35"/>
-      <c r="E81" s="80">
+      <c r="E81" s="79">
         <v>1</v>
       </c>
       <c r="F81" s="36"/>
       <c r="G81" s="38"/>
     </row>
     <row r="82" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="87" t="s">
+      <c r="B82" s="86" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="15"/>
@@ -3307,7 +3307,7 @@
       <c r="B83" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="80">
+      <c r="C83" s="79">
         <v>1</v>
       </c>
       <c r="D83" s="35"/>
@@ -3319,7 +3319,7 @@
       <c r="B84" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="80">
+      <c r="C84" s="79">
         <v>1</v>
       </c>
       <c r="D84" s="35"/>
@@ -3328,7 +3328,7 @@
       <c r="G84" s="38"/>
     </row>
     <row r="85" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="87" t="s">
+      <c r="B85" s="86" t="s">
         <v>52</v>
       </c>
       <c r="C85" s="15"/>
@@ -3344,7 +3344,7 @@
       <c r="C86" s="14"/>
       <c r="D86" s="35"/>
       <c r="E86" s="36"/>
-      <c r="F86" s="80">
+      <c r="F86" s="79">
         <v>1</v>
       </c>
       <c r="G86" s="38"/>
@@ -3356,7 +3356,7 @@
       <c r="C87" s="14"/>
       <c r="D87" s="35"/>
       <c r="E87" s="36"/>
-      <c r="F87" s="80">
+      <c r="F87" s="79">
         <v>1</v>
       </c>
       <c r="G87" s="19"/>
@@ -3368,7 +3368,7 @@
       <c r="C88" s="14"/>
       <c r="D88" s="35"/>
       <c r="E88" s="36"/>
-      <c r="F88" s="80">
+      <c r="F88" s="79">
         <v>1</v>
       </c>
       <c r="G88" s="38"/>
@@ -3380,7 +3380,7 @@
       <c r="C89" s="14"/>
       <c r="D89" s="35"/>
       <c r="E89" s="36"/>
-      <c r="F89" s="80">
+      <c r="F89" s="79">
         <v>1</v>
       </c>
       <c r="G89" s="38"/>
@@ -4016,18 +4016,18 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
       <c r="D2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="75" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4048,14 +4048,14 @@
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
@@ -4067,11 +4067,11 @@
     </row>
     <row r="5" spans="1:16" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="56"/>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="57" t="s">
         <v>98</v>
       </c>
@@ -4091,11 +4091,11 @@
       <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4105,25 +4105,25 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="89" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
@@ -4133,11 +4133,11 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="20" t="s">
         <v>7</v>
       </c>
@@ -4147,11 +4147,11 @@
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:16" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="20" t="s">
         <v>8</v>
       </c>
@@ -4161,11 +4161,11 @@
       <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4175,11 +4175,11 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
@@ -4189,11 +4189,11 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
@@ -4203,11 +4203,11 @@
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:16" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4217,11 +4217,11 @@
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="20" t="s">
         <v>8</v>
       </c>
@@ -4231,11 +4231,11 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="20" t="s">
         <v>7</v>
       </c>
@@ -4245,11 +4245,11 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
@@ -4259,11 +4259,11 @@
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="2:7" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
@@ -4273,11 +4273,11 @@
       <c r="G18" s="21"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4287,11 +4287,11 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
@@ -4301,11 +4301,11 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="1" t="s">
         <v>5</v>
       </c>
@@ -4315,11 +4315,11 @@
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="20" t="s">
         <v>8</v>
       </c>
@@ -4329,11 +4329,11 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="20" t="s">
         <v>7</v>
       </c>
@@ -4343,21 +4343,21 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="20" t="s">
         <v>124</v>
       </c>
@@ -4367,11 +4367,11 @@
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="2:7" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="20" t="s">
         <v>124</v>
       </c>
@@ -4381,11 +4381,11 @@
       <c r="G26" s="21"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="20" t="s">
         <v>124</v>
       </c>
@@ -4395,21 +4395,21 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
@@ -4419,11 +4419,11 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="2:7" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="116"/>
       <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
@@ -4433,69 +4433,69 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="2:7" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="120"/>
       <c r="E31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="91"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="120"/>
       <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="91"/>
+      <c r="G32" s="90"/>
     </row>
     <row r="33" spans="2:7" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="120"/>
       <c r="E33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="91"/>
+      <c r="G33" s="90"/>
     </row>
     <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="109"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="100"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="106"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
@@ -4504,6 +4504,24 @@
     <row r="38" spans="2:7" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
@@ -4520,24 +4538,6 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Present" sqref="J3:J5" xr:uid="{4E8D129D-BAB8-D74E-A5C2-FA497C29E02B}"/>
@@ -4568,13 +4568,13 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="24" customWidth="1"/>
-    <col min="2" max="2" width="35.75" style="74" customWidth="1"/>
+    <col min="2" max="2" width="35.75" style="73" customWidth="1"/>
     <col min="3" max="6" width="35.75" style="31" customWidth="1"/>
     <col min="7" max="7" width="3.4140625" style="24" customWidth="1"/>
     <col min="8" max="16384" width="9.08203125" style="24"/>
@@ -4587,8 +4587,8 @@
       <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
       <c r="D2" s="60"/>
       <c r="E2" s="25"/>
       <c r="F2" s="60"/>
@@ -4601,187 +4601,187 @@
       <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:8" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
     </row>
     <row r="5" spans="1:8" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64"/>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
       <c r="G6" s="66"/>
       <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="125" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
-      <c r="B10" s="119" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="64"/>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
     </row>
     <row r="19" spans="2:6" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="128" t="s">
+      <c r="D22" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="129" t="s">
+      <c r="E22" s="93" t="s">
         <v>153</v>
       </c>
       <c r="F22" s="24"/>
@@ -4790,35 +4790,37 @@
       <c r="B23" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="70">
         <v>12345678</v>
       </c>
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="70"/>
       <c r="F24" s="24"/>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="71"/>
+      <c r="C25" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="24"/>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4881,6 +4883,16 @@
     <row r="35" spans="2:6" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
@@ -4890,16 +4902,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter / Update Subject name in this cell." sqref="B22 B18 B14 B10 B6" xr:uid="{6736ACEF-81CA-2E4F-88C1-E505608BAFC9}"/>
@@ -4913,11 +4915,12 @@
     <hyperlink ref="D23" r:id="rId2" xr:uid="{D54DEC70-3132-4107-9C3B-5F7D9262978D}"/>
     <hyperlink ref="C24" r:id="rId3" xr:uid="{D5A81D9D-58B4-493E-A4F6-309CFFDC890F}"/>
     <hyperlink ref="C23" r:id="rId4" xr:uid="{5B81C5D1-756E-4462-8005-46A0090F9D1C}"/>
+    <hyperlink ref="C25" r:id="rId5" xr:uid="{8AB328E2-F172-4347-81A6-F9112FBC5328}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4931,15 +4934,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5160,6 +5154,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D2A95FF-A338-465D-B0F9-77E5D144781D}">
   <ds:schemaRefs>
@@ -5171,14 +5174,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6066F24C-3543-4EC7-AF05-D013CF2ADED1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3D78484-8024-4583-ADF9-3759BE3F0A35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5195,4 +5190,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6066F24C-3543-4EC7-AF05-D013CF2ADED1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>